--- a/TestData/LV_TMTT0042958_VerifyCapitalMarketViewsOnOpportunityCounterpartyPage.xlsx
+++ b/TestData/LV_TMTT0042958_VerifyCapitalMarketViewsOnOpportunityCounterpartyPage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vkumar0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49DDE5D6-C5BC-4832-B464-FB91A2D5D641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EFED11-2D4D-46C4-B0B5-1A1F49C3D5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="72">
   <si>
     <t>James Craven</t>
   </si>
@@ -80,12 +80,6 @@
     <t>Add/Remove Columns</t>
   </si>
   <si>
-    <t>Debt Capital Markets</t>
-  </si>
-  <si>
-    <t>Equity Capital Markets</t>
-  </si>
-  <si>
     <t>Job Types</t>
   </si>
   <si>
@@ -197,12 +191,6 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>CM Stages - Shortened View</t>
-  </si>
-  <si>
-    <t>CM Stages - Extended View</t>
-  </si>
-  <si>
     <t>All</t>
   </si>
   <si>
@@ -258,6 +246,21 @@
   </si>
   <si>
     <t>Capital Raise</t>
+  </si>
+  <si>
+    <t>Debt Financing</t>
+  </si>
+  <si>
+    <t>Avanti</t>
+  </si>
+  <si>
+    <t>Equity Placements</t>
+  </si>
+  <si>
+    <t>CS Stages - Extended View</t>
+  </si>
+  <si>
+    <t>CS Stages - Shortened View</t>
   </si>
 </sst>
 </file>
@@ -450,7 +453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -466,6 +469,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -749,7 +753,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -784,7 +788,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -794,166 +798,166 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="8"/>
       <c r="B14" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
       <c r="B17" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
       <c r="B22" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="7"/>
       <c r="B23" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1018,56 +1022,59 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D30953EE-CA2E-4F7C-B9BA-21629FCB862C}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" t="s">
         <v>69</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
+      <c r="G3" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1081,7 +1088,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1093,35 +1100,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1134,7 +1141,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1151,19 +1158,19 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="B4" s="3"/>
     </row>
@@ -1178,7 +1185,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1232,77 +1239,77 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1314,7 +1321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56AA60E9-1496-427F-875C-4561E659EAD1}">
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -1325,127 +1332,127 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
